--- a/Standard_Library_TestCase_GroupUtil.xlsx
+++ b/Standard_Library_TestCase_GroupUtil.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkapd\Desktop\config\实用工具类\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>Test Environment</t>
   </si>
@@ -862,6 +862,10 @@
       <t>"</t>
     </r>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>hq_VM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2215,8 +2219,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2310,7 +2314,9 @@
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2380,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
